--- a/Template/匯入資料範本(人資系統).xlsx
+++ b/Template/匯入資料範本(人資系統).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19024"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19031"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\桌面\其他\人才資料庫\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Talent\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="34A79B3F5A69C240519C3DF3D9DEC058668D9CD9" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="34A79B3F5A69C240519C3DF3D9DEC058668D9CD9" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{7AB66B95-7699-45FA-8CAE-269227845DE6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6400" xr2:uid="{0DDAC74A-4461-4750-89B5-76D00E96E0F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6405" xr2:uid="{0DDAC74A-4461-4750-89B5-76D00E96E0F4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>姓名</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>性別</t>
   </si>
@@ -536,9 +533,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D7BE65-372A-4F20-9AB8-22C242A420F6}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0D3D2BA5-7804-53F8-8905-8CFE40922D58}"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0D3D2BA5-7804-53F8-8905-8CFE40922D58}">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.100000000000001"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
@@ -549,80 +548,78 @@
     <col min="8" max="10" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="42.75">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="40.5">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="3">
         <v>42191</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3">
         <v>42191</v>
@@ -630,39 +627,39 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="71.25">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="67.5">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G4" s="3">
         <v>41059</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Template/匯入資料範本(人資系統).xlsx
+++ b/Template/匯入資料範本(人資系統).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19031"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19024"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Talent\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="34A79B3F5A69C240519C3DF3D9DEC058668D9CD9" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{7AB66B95-7699-45FA-8CAE-269227845DE6}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="34A79B3F5A69C240519C3DF3D9DEC058668D9CD9" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{F5E9443F-9624-43E2-ABFC-6BECBC6675A8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6405" xr2:uid="{0DDAC74A-4461-4750-89B5-76D00E96E0F4}"/>
   </bookViews>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>姓名</t>
+  </si>
   <si>
     <t>性別</t>
   </si>
@@ -534,7 +537,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0D3D2BA5-7804-53F8-8905-8CFE40922D58}">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -549,77 +552,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3">
         <v>42191</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3">
         <v>42191</v>
@@ -627,39 +632,39 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="71.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3">
         <v>41059</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
